--- a/src/main/resources/rules/transactions.xls.xlsx
+++ b/src/main/resources/rules/transactions.xls.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Documentos\SpringBoot Project docs\drools\src\main\resources\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{993B8B0B-FE67-4BC9-BD59-4B61E1E4B968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CBD5D9-82EC-4322-9D41-870F91376B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14370" yWindow="1245" windowWidth="12885" windowHeight="11295"/>
+    <workbookView xWindow="1155" yWindow="1800" windowWidth="12885" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transactions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
   <si>
     <t>RuleSet</t>
   </si>
@@ -170,12 +170,66 @@
   </si>
   <si>
     <t>CardHolder Address</t>
+  </si>
+  <si>
+    <t>Average send transaction amount</t>
+  </si>
+  <si>
+    <t>amount &gt; 0</t>
+  </si>
+  <si>
+    <t>cardholderName==$transaction.cardholderName&amp;&amp; this before $transaction</t>
+  </si>
+  <si>
+    <t>pastAverage</t>
+  </si>
+  <si>
+    <t>average($pastTransaction.amount)</t>
+  </si>
+  <si>
+    <t>setScore(riskScore.getScore() + calculateRiskScore(Math.abs($transaction.getAmount() - $pastAvg), $pastAvg))</t>
+  </si>
+  <si>
+    <t>Average pay transaction amount</t>
+  </si>
+  <si>
+    <t>amount &lt; 0</t>
+  </si>
+  <si>
+    <t>Geographical areas in which the business operates</t>
+  </si>
+  <si>
+    <t>equals</t>
+  </si>
+  <si>
+    <t>"Operating country"</t>
+  </si>
+  <si>
+    <t>setScore(riskScore.getScore() - 5)</t>
+  </si>
+  <si>
+    <t>Incorrect transaction amount</t>
+  </si>
+  <si>
+    <t>amount &lt;= 0</t>
+  </si>
+  <si>
+    <t>setScore(riskScore.getScore() + 5)</t>
+  </si>
+  <si>
+    <t>Duplicate charges error</t>
+  </si>
+  <si>
+    <t>"Merchant name"</t>
+  </si>
+  <si>
+    <t>setScore(riskScore.getScore() + 8)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -744,26 +798,8 @@
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -776,12 +812,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -815,6 +845,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -861,7 +915,57 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1191,11 +1295,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1309,7 @@
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="6" max="6" width="101.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.140625" customWidth="1"/>
     <col min="257" max="257" width="25" customWidth="1"/>
     <col min="258" max="258" width="35.85546875" customWidth="1"/>
@@ -1591,56 +1695,56 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="26.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H5" s="11"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="I6" s="11"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1649,391 +1753,613 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="26"/>
-      <c r="I8" s="11"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="18"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="27"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="b">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21" t="b">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21" t="b">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21" t="b">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21" t="b">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="13">
         <v>5</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21" t="b">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19" t="s">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21" t="b">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21" t="b">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2042,9 +2368,24 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="B29:F30">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F33">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:F36">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:F39">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:F42">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:F45">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F33">
+  <conditionalFormatting sqref="B47:F48">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/rules/transactions.xls.xlsx
+++ b/src/main/resources/rules/transactions.xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Documentos\SpringBoot Project docs\drools\src\main\resources\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CBD5D9-82EC-4322-9D41-870F91376B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B96A034-E451-4523-A062-EB23608EC8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="1800" windowWidth="12885" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15750" yWindow="2850" windowWidth="12885" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transactions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>RuleSet</t>
   </si>
@@ -106,9 +106,6 @@
     <t>CardHolder</t>
   </si>
   <si>
-    <t>cardholderBillingAddress != cardholderIpAddress.extractCity()</t>
-  </si>
-  <si>
     <t>Frequent Transactions from Same Merchant</t>
   </si>
   <si>
@@ -154,21 +151,12 @@
     <t>"Mismatched"</t>
   </si>
   <si>
-    <t>Transaction Amount Exceeds Cardholder Average</t>
-  </si>
-  <si>
-    <t>amount &gt; (2 * averageTransactionAmount( $transaction.cardholderName ))</t>
-  </si>
-  <si>
     <t>CardHolder Name</t>
   </si>
   <si>
     <t>Transaction from Unknown address</t>
   </si>
   <si>
-    <t>cardholderIpAddress not in (loadFrom( "cardHolderAddress.csv" ))</t>
-  </si>
-  <si>
     <t>CardHolder Address</t>
   </si>
   <si>
@@ -178,27 +166,15 @@
     <t>amount &gt; 0</t>
   </si>
   <si>
-    <t>cardholderName==$transaction.cardholderName&amp;&amp; this before $transaction</t>
-  </si>
-  <si>
     <t>pastAverage</t>
   </si>
   <si>
-    <t>average($pastTransaction.amount)</t>
-  </si>
-  <si>
-    <t>setScore(riskScore.getScore() + calculateRiskScore(Math.abs($transaction.getAmount() - $pastAvg), $pastAvg))</t>
-  </si>
-  <si>
     <t>Average pay transaction amount</t>
   </si>
   <si>
     <t>amount &lt; 0</t>
   </si>
   <si>
-    <t>Geographical areas in which the business operates</t>
-  </si>
-  <si>
     <t>equals</t>
   </si>
   <si>
@@ -224,6 +200,65 @@
   </si>
   <si>
     <t>setScore(riskScore.getScore() + 8)</t>
+  </si>
+  <si>
+    <t>amount &gt; (2 * averageTransactionAmount
+( $transaction.cardholderName ))</t>
+  </si>
+  <si>
+    <t>cardholderBillingAddress != 
+cardholderIpAddress.extractCity()</t>
+  </si>
+  <si>
+    <t>cardholderIpAddress not in (loadFrom
+( "cardHolderAddress.csv" ))</t>
+  </si>
+  <si>
+    <t>Geographical areas in which
+ the business operates</t>
+  </si>
+  <si>
+    <t>Transaction Amount Exceeds
+ Cardholder Average</t>
+  </si>
+  <si>
+    <t>cardholderName==$transaction.
+cardholderName
+&amp;&amp; this before $transaction</t>
+  </si>
+  <si>
+    <t>cardholderName==$transaction.
+cardholderName&amp;&amp; 
+this before $transaction</t>
+  </si>
+  <si>
+    <t>average
+($pastTransaction.amount)</t>
+  </si>
+  <si>
+    <t>setScore(riskScore.getScore() + 
+calculateRiskScore(Math.abs
+($transaction.getAmount() -
+ $pastAvg), $pastAvg))</t>
+  </si>
+  <si>
+    <t>setScore(riskScore.getScore() +
+ calculateRiskScore(Math.abs
+($transaction.getAmount() - 
+$pastAvg), $pastAvg))</t>
+  </si>
+  <si>
+    <t>Multiple logins within a short period</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>lastFailedLogin within
+ last 15 minutes</t>
+  </si>
+  <si>
+    <t>failedLoginAttempts&gt;3</t>
   </si>
 </sst>
 </file>
@@ -795,7 +830,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,6 +880,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -915,7 +959,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1296,20 +1360,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="67.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="101.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
     <col min="7" max="7" width="20.140625" customWidth="1"/>
     <col min="257" max="257" width="25" customWidth="1"/>
     <col min="258" max="258" width="35.85546875" customWidth="1"/>
@@ -1695,21 +1759,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="26.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1760,7 +1824,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>6</v>
@@ -1768,8 +1832,8 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="7"/>
       <c r="E8" s="18"/>
       <c r="I8" s="5"/>
@@ -1924,23 +1988,23 @@
         <v>10</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>28</v>
+      <c r="B20" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="14" t="s">
@@ -1968,10 +2032,10 @@
         <v>10</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>12</v>
@@ -1979,16 +2043,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1998,7 +2062,7 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="13">
         <v>5</v>
@@ -2013,7 +2077,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>20</v>
@@ -2025,18 +2089,18 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -2069,12 +2133,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>45</v>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -2090,7 +2154,7 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="14"/>
@@ -2113,18 +2177,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2134,7 +2198,7 @@
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="14"/>
@@ -2147,10 +2211,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
@@ -2159,30 +2223,30 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>54</v>
+      <c r="C36" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="F36" s="14" t="s">
-        <v>55</v>
+      <c r="F36" s="22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2193,10 +2257,10 @@
         <v>10</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
@@ -2205,30 +2269,30 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>54</v>
+      <c r="C39" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="E39" s="13"/>
-      <c r="F39" s="14" t="s">
-        <v>55</v>
+      <c r="F39" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2249,14 +2313,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>58</v>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="14"/>
@@ -2268,11 +2332,11 @@
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2295,10 +2359,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2314,7 +2378,7 @@
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2328,7 +2392,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
@@ -2337,12 +2401,12 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="14"/>
@@ -2354,11 +2418,55 @@
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2368,24 +2476,30 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="B29:F30">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F33">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:F36">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F33">
+  <conditionalFormatting sqref="B38:F39">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F36">
+  <conditionalFormatting sqref="B41:F42">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:F39">
+  <conditionalFormatting sqref="B44:F45">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:F42">
+  <conditionalFormatting sqref="B47:F48">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:F45">
+  <conditionalFormatting sqref="B50:F50 B51:E51">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:F48">
+  <conditionalFormatting sqref="F51">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
